--- a/va_facility_data_2025-02-20/Wilkes-Barre VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Wilkes-Barre%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Wilkes-Barre VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Wilkes-Barre%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R594b87d5a35947e3bdd8935cea44d675"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R9557f92c43fb4da581458e62c5409e27"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R63803993aede41bcbcd6b89c620e343a"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="Racf83bfb20c74367a30095e5e8fbfed8"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rf109d38709424d028dec4f670ceb2fc3"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rdc94021fded142639cecdcd7217c9d1f"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Re9bd17c7ef6d49f1959e6d8d62a9844a"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="Rfad4b49cc44c485faeccfa221f1587fa"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Re86dc3e5d60e4b2caf0cb5a95f768606"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Re3dfb04d26c04472b14ec63a7ea856d8"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R9cd75266dde745df84dd35e3713fb5b9"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R3ff2fef599d64377b99c38e603a662ff"/>
   </x:sheets>
 </x:workbook>
 </file>
